--- a/data/xlsx/sample1.xlsx
+++ b/data/xlsx/sample1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F6E51C-6730-440B-A240-DD70B1E0092A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30EE7AA-D432-4F44-8C16-2FCAF40C137E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5145" yWindow="1425" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="value_test" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,6 +97,18 @@
   </si>
   <si>
     <t>lily</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试bool</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -422,60 +434,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -493,9 +523,9 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -503,7 +533,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -511,7 +541,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -519,7 +549,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -527,7 +557,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -535,7 +565,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -543,7 +573,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
@@ -551,7 +581,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -574,9 +604,9 @@
       <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -590,7 +620,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -604,7 +634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -618,7 +648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -632,7 +662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -646,7 +676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -660,7 +690,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>

--- a/data/xlsx/sample1.xlsx
+++ b/data/xlsx/sample1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30EE7AA-D432-4F44-8C16-2FCAF40C137E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F5A2E1-1A1A-4B33-A07C-86814FEDE327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21710" yWindow="-7890" windowWidth="21820" windowHeight="38020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="value_test" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,22 +40,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>list(int, 3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1,2,3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(3,4,5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(2,3,4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>color_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -109,6 +93,26 @@
   </si>
   <si>
     <t>测试bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["int", 3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2,3,4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,2,3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3,4,5]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,7 +441,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -450,18 +454,18 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -472,7 +476,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -480,7 +484,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -491,7 +495,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -502,7 +506,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -527,18 +531,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -546,7 +550,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -554,7 +558,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -562,7 +566,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -570,7 +574,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -578,7 +582,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -586,7 +590,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -608,21 +612,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -636,7 +640,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -650,7 +654,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>255</v>
@@ -664,7 +668,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -678,7 +682,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -692,7 +696,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>255</v>
